--- a/LubanTool/Gen/Datas/__tables__.xlsx
+++ b/LubanTool/Gen/Datas/__tables__.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Study\2025\ARPGLearning\LubanTool\Gen\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D730F-6A03-47C5-AC6A-218B11DAA4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18270" windowHeight="15105"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="31110" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>##var</t>
   </si>
@@ -414,13 +420,25 @@
   </si>
   <si>
     <t>chest.TbChest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summoner.TbSummoner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SummonerConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summoner.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,11 +806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,14 +1275,28 @@
       <c r="B29" t="s">
         <v>106</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/LubanTool/Gen/Datas/__tables__.xlsx
+++ b/LubanTool/Gen/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Study\2025\ARPGLearning\LubanTool\Gen\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85D730F-6A03-47C5-AC6A-218B11DAA4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3583D8-9091-4BD7-831E-6C09C7811191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="31110" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="6045" windowWidth="31110" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>##var</t>
   </si>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>Summoner.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Npc.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcConfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc.TbNpc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,6 +1311,20 @@
         <v>109</v>
       </c>
     </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
